--- a/xlsx/country_comparison/field_issue_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_gpt_positive.xlsx
@@ -615,7 +615,7 @@
         <v>0.188184964721999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.197683498919387</v>
+        <v>0.197683498919388</v>
       </c>
       <c r="K4" t="n">
         <v>0.14502813609431</v>
@@ -993,7 +993,7 @@
         <v>0.107603402117173</v>
       </c>
       <c r="M13" t="n">
-        <v>0.083524236537252</v>
+        <v>0.0835242365372521</v>
       </c>
     </row>
     <row r="14">
@@ -1048,7 +1048,7 @@
         <v>0.0489173522914819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0568010948834196</v>
+        <v>0.0568010948834197</v>
       </c>
       <c r="E15" t="n">
         <v>0.0113416952558063</v>
@@ -1230,13 +1230,13 @@
         <v>0.0975812637274696</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0359678505921663</v>
+        <v>0.0359678505921664</v>
       </c>
       <c r="K19" t="n">
         <v>0.0560983047085911</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0659350830173021</v>
+        <v>0.0659350830173022</v>
       </c>
       <c r="M19" t="n">
         <v>0.0260608974346387</v>
@@ -1397,7 +1397,7 @@
         <v>0.0351861582759067</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00797229206962194</v>
+        <v>0.00797229206962193</v>
       </c>
       <c r="L23" t="n">
         <v>0.021589577201869</v>
@@ -1593,7 +1593,7 @@
         <v>0.00710963894454499</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00549116006129044</v>
+        <v>0.00549116006129043</v>
       </c>
       <c r="I28" t="n">
         <v>0.00904467466349891</v>

--- a/xlsx/country_comparison/field_issue_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_gpt_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -71,21 +74,21 @@
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Poverty; inequality</t>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
@@ -95,15 +98,15 @@
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
@@ -122,13 +125,13 @@
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animal welfare</t>
   </si>
   <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
     <t xml:space="preserve">Religion; sin; God</t>
@@ -503,1079 +506,1160 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.216675819457278</v>
+        <v>0.223417545568208</v>
       </c>
       <c r="C2" t="n">
         <v>0.169237286456615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.202711992438269</v>
+        <v>0.20022281540551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.188802932907138</v>
+        <v>0.191026730234656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0981937485350935</v>
+        <v>0.0928327934097872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.363094020640355</v>
+        <v>0.35897194893619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0906627694148024</v>
+        <v>0.0883597489616445</v>
       </c>
       <c r="I2" t="n">
-        <v>0.115097740651015</v>
+        <v>0.119175413165721</v>
       </c>
       <c r="J2" t="n">
-        <v>0.198618458370801</v>
+        <v>0.186649088859257</v>
       </c>
       <c r="K2" t="n">
-        <v>0.418870425619604</v>
+        <v>0.417794103579128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.217697068136546</v>
+        <v>0.274891084219612</v>
       </c>
       <c r="M2" t="n">
-        <v>0.190925048807543</v>
+        <v>0.234856526153382</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.189987593010746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.209520259428947</v>
+        <v>0.202269104730039</v>
       </c>
       <c r="C3" t="n">
         <v>0.2010605290208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239631104300771</v>
+        <v>0.235004972112414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.146119362104804</v>
+        <v>0.148313700032348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.213057889252489</v>
+        <v>0.210534318184935</v>
       </c>
       <c r="G3" t="n">
-        <v>0.238032322652932</v>
+        <v>0.24296691667722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.21479261617231</v>
+        <v>0.216502179930676</v>
       </c>
       <c r="I3" t="n">
-        <v>0.203676083513632</v>
+        <v>0.210333597878881</v>
       </c>
       <c r="J3" t="n">
-        <v>0.132117195246874</v>
+        <v>0.130626228945134</v>
       </c>
       <c r="K3" t="n">
-        <v>0.229376985957075</v>
+        <v>0.230114305724602</v>
       </c>
       <c r="L3" t="n">
-        <v>0.131767965918261</v>
+        <v>0.159198392534512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.218251998808369</v>
+        <v>0.128315851505375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.223618468520948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194655661423591</v>
+        <v>0.198974784839264</v>
       </c>
       <c r="C4" t="n">
         <v>0.179401626647236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186685495402022</v>
+        <v>0.187408340230694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.171067570616501</v>
+        <v>0.171648492730654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.179450754321473</v>
+        <v>0.175639817597509</v>
       </c>
       <c r="G4" t="n">
-        <v>0.177213728090817</v>
+        <v>0.17167362928555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.172393798633527</v>
+        <v>0.182540623706696</v>
       </c>
       <c r="I4" t="n">
-        <v>0.188184964721999</v>
+        <v>0.194653428882325</v>
       </c>
       <c r="J4" t="n">
-        <v>0.197683498919388</v>
+        <v>0.198858680374727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14502813609431</v>
+        <v>0.14582823713337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.255584137828158</v>
+        <v>0.225302962859589</v>
       </c>
       <c r="M4" t="n">
-        <v>0.227363287262756</v>
+        <v>0.26434625950318</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2291218088436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177661127051503</v>
+        <v>0.182774776343836</v>
       </c>
       <c r="C5" t="n">
         <v>0.194177085741855</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186753881149071</v>
+        <v>0.187592281879623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.234645630427184</v>
+        <v>0.22890663624305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.151137953157654</v>
+        <v>0.155771779579366</v>
       </c>
       <c r="G5" t="n">
-        <v>0.10349675904784</v>
+        <v>0.111230656778987</v>
       </c>
       <c r="H5" t="n">
-        <v>0.209077253197319</v>
+        <v>0.21124903706728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.242267839587482</v>
+        <v>0.246513255385773</v>
       </c>
       <c r="J5" t="n">
-        <v>0.10598699775716</v>
+        <v>0.110989988148647</v>
       </c>
       <c r="K5" t="n">
-        <v>0.257032204433208</v>
+        <v>0.261267745175297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0169911273033279</v>
+        <v>0.192983990029881</v>
       </c>
       <c r="M5" t="n">
-        <v>0.140147496414292</v>
+        <v>0.0159500889818958</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.140197117192812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.143482760568073</v>
+        <v>0.155366163302992</v>
       </c>
       <c r="C6" t="n">
         <v>0.125240446694307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154962416537192</v>
+        <v>0.156504602628726</v>
       </c>
       <c r="E6" t="n">
-        <v>0.083404801673811</v>
+        <v>0.0894200263561239</v>
       </c>
       <c r="F6" t="n">
-        <v>0.156545442782081</v>
+        <v>0.154540928978431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0903050957419277</v>
+        <v>0.0957122567530999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12211544103979</v>
+        <v>0.123978699938591</v>
       </c>
       <c r="I6" t="n">
-        <v>0.153238684055859</v>
+        <v>0.146102357662162</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0938682594688146</v>
+        <v>0.0997945433689347</v>
       </c>
       <c r="K6" t="n">
-        <v>0.157266613059345</v>
+        <v>0.158661882963015</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0992290000739948</v>
+        <v>0.239984981422845</v>
       </c>
       <c r="M6" t="n">
-        <v>0.16328279909465</v>
+        <v>0.106978131318924</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.163414146275312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115971665814238</v>
+        <v>0.114739269035843</v>
       </c>
       <c r="C7" t="n">
         <v>0.128124521827342</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100583498188362</v>
+        <v>0.104923520185666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0642164485506906</v>
+        <v>0.0674412246042197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.217023842269771</v>
+        <v>0.214602408393347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0795620153963426</v>
+        <v>0.0888022113436949</v>
       </c>
       <c r="H7" t="n">
-        <v>0.183797238722056</v>
+        <v>0.198037046112196</v>
       </c>
       <c r="I7" t="n">
-        <v>0.150727782105736</v>
+        <v>0.151166850617086</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0710869850914451</v>
+        <v>0.0736131102461073</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0505362899084386</v>
+        <v>0.0514750920516115</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0818475683142896</v>
+        <v>0.103834773022203</v>
       </c>
       <c r="M7" t="n">
-        <v>0.131020266733516</v>
+        <v>0.0825074330161454</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.129941628735653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109508284379435</v>
+        <v>0.111319750188776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0911640642838539</v>
+        <v>0.103554521321094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0512064055954782</v>
+        <v>0.112033132041557</v>
       </c>
       <c r="E8" t="n">
-        <v>0.117318688148721</v>
+        <v>0.099754758011605</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0828150945776466</v>
+        <v>0.157823212209008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0342190620557059</v>
+        <v>0.0540570065353844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0748189398402997</v>
+        <v>0.0641463943318464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.143319006729748</v>
+        <v>0.103453211313723</v>
       </c>
       <c r="J8" t="n">
-        <v>0.123062394295899</v>
+        <v>0.0787647814558626</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0399146920000026</v>
+        <v>0.0664932910911076</v>
       </c>
       <c r="L8" t="n">
-        <v>0.24482544522233</v>
+        <v>0.183013004546075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.147439455832104</v>
+        <v>0.0950541421571336</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.10973129698722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.100511862011617</v>
+        <v>0.100636478368573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.103554521321094</v>
+        <v>0.0911640642838539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113449709710037</v>
+        <v>0.0532556001536656</v>
       </c>
       <c r="E9" t="n">
-        <v>0.105976987984685</v>
+        <v>0.112505049354584</v>
       </c>
       <c r="F9" t="n">
-        <v>0.154971875181436</v>
+        <v>0.0832527881429948</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0491948219799193</v>
+        <v>0.0320587873227007</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0691362738597553</v>
+        <v>0.0782756597965694</v>
       </c>
       <c r="I9" t="n">
-        <v>0.107692567174405</v>
+        <v>0.14168921643083</v>
       </c>
       <c r="J9" t="n">
-        <v>0.078735906469231</v>
+        <v>0.11543012043317</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0654277767362892</v>
+        <v>0.0390126789362828</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0922821191588574</v>
+        <v>0.0435582808776408</v>
       </c>
       <c r="M9" t="n">
-        <v>0.111799112470333</v>
+        <v>0.229113074178228</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.149054943043887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0850735602898021</v>
+        <v>0.0825696079393081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0922245157617876</v>
+        <v>0.0802683839971821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117799498693381</v>
+        <v>0.0512028795696537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0632065413972912</v>
+        <v>0.161261647410383</v>
       </c>
       <c r="F10" t="n">
-        <v>0.112515749031281</v>
+        <v>0.0138833568113996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0929075687456678</v>
+        <v>0.0359425466939943</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0839450282003677</v>
+        <v>0.0823011764504771</v>
       </c>
       <c r="I10" t="n">
-        <v>0.102107413477214</v>
+        <v>0.0823275994286373</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0371087532735424</v>
+        <v>0.045731141535936</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0407474413941915</v>
+        <v>0.122618642318391</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07086031290018</v>
+        <v>0.139516078458568</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0957674343658797</v>
+        <v>0.0256610929657658</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0434665845814901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0821322368759349</v>
+        <v>0.0787402377395512</v>
       </c>
       <c r="C11" t="n">
         <v>0.0845768166585125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0878959481350542</v>
+        <v>0.0904557117764626</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0827681422046619</v>
+        <v>0.0826847816435332</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0994403256904308</v>
+        <v>0.111576692431841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0341190043700378</v>
+        <v>0.0360469522983741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0567694990254511</v>
+        <v>0.0559636999762788</v>
       </c>
       <c r="I11" t="n">
-        <v>0.121840276059508</v>
+        <v>0.112193800388203</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0914237090261151</v>
+        <v>0.0961811836834998</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0429060049292753</v>
+        <v>0.0420149620192871</v>
       </c>
       <c r="L11" t="n">
-        <v>0.096442955101753</v>
+        <v>0.0529345583001773</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0938335407286598</v>
+        <v>0.0922009218920834</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0928527954571742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0717409008756067</v>
+        <v>0.0785845204367447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0802683839971821</v>
+        <v>0.0922245157617876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0513768046239264</v>
+        <v>0.114029923494134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.166077271859815</v>
+        <v>0.0628469370700283</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0146565992021001</v>
+        <v>0.123315835459908</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0364551724960309</v>
+        <v>0.0921364715497939</v>
       </c>
       <c r="H12" t="n">
-        <v>0.076414954434137</v>
+        <v>0.079134051606482</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0874634702350794</v>
+        <v>0.0943553572299966</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0418395215039835</v>
+        <v>0.0467649336664393</v>
       </c>
       <c r="K12" t="n">
-        <v>0.124418907872848</v>
+        <v>0.0410716403347922</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0271180705600924</v>
+        <v>0.0303952047915561</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0443135936950236</v>
+        <v>0.0638108550560298</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0949483854645325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0708113634000446</v>
+        <v>0.0681082474454797</v>
       </c>
       <c r="C13" t="n">
         <v>0.0753497714087026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0461596652414318</v>
+        <v>0.0490599793765233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.104357562952903</v>
+        <v>0.104451332752594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.091749388912807</v>
+        <v>0.0888713701402803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.020178564505872</v>
+        <v>0.0186779745621404</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0645500670236247</v>
+        <v>0.0585071288275469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0867863684002401</v>
+        <v>0.0880766171564503</v>
       </c>
       <c r="J13" t="n">
-        <v>0.104138190995392</v>
+        <v>0.107734637245884</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0181099673569651</v>
+        <v>0.0192860651638059</v>
       </c>
       <c r="L13" t="n">
-        <v>0.107603402117173</v>
+        <v>0.0493898969534796</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0835242365372521</v>
+        <v>0.0995309836308743</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0841120508366378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0691740240190807</v>
+        <v>0.0670505807983924</v>
       </c>
       <c r="C14" t="n">
         <v>0.0513130452211509</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0443731776819236</v>
+        <v>0.0468206925047297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0507873920291707</v>
+        <v>0.0486758067548061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0788571891515137</v>
+        <v>0.0805721747900076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0318727963068214</v>
+        <v>0.0334376420926766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0620827140478597</v>
+        <v>0.0598633412073072</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0388484527265159</v>
+        <v>0.0340549142640836</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0362907319388252</v>
+        <v>0.0310925313658057</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0279547655444109</v>
+        <v>0.0278085753322101</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0455268341213361</v>
+        <v>0.0550524068414956</v>
       </c>
       <c r="M14" t="n">
-        <v>0.108926653679641</v>
+        <v>0.0449670165527774</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.108159023402514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0593188266005874</v>
+        <v>0.0554673332762736</v>
       </c>
       <c r="C15" t="n">
         <v>0.0489173522914819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0568010948834197</v>
+        <v>0.0543110714866601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0113416952558063</v>
+        <v>0.00948979408175142</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0563550368544661</v>
+        <v>0.0568521807956981</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0891625443705857</v>
+        <v>0.0961892138359744</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0840287047467663</v>
+        <v>0.0784274895807323</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0362748425535344</v>
+        <v>0.0372039071236525</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0238098614158626</v>
+        <v>0.0233500870122781</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0622882977831649</v>
+        <v>0.062075756668966</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00632645192905742</v>
+        <v>0.0359099358589463</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0749989412725024</v>
+        <v>0.00516819540271738</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0781284695012686</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0570944371660845</v>
+        <v>0.0531354482553969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0904479696599643</v>
+        <v>0.0644778811262157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.088832840586749</v>
+        <v>0.0197726738446422</v>
       </c>
       <c r="E16" t="n">
-        <v>0.104849797279902</v>
+        <v>0.0836245081867106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0397609000377284</v>
+        <v>0.0551578131881291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.082289266777481</v>
+        <v>0.0404017534809193</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0543980478910643</v>
+        <v>0.0814427564858072</v>
       </c>
       <c r="I16" t="n">
-        <v>0.149080428585423</v>
+        <v>0.0802510462445432</v>
       </c>
       <c r="J16" t="n">
-        <v>0.108832239531065</v>
+        <v>0.111364688677826</v>
       </c>
       <c r="K16" t="n">
-        <v>0.020517990585547</v>
+        <v>0.0204914435460756</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0121527595684084</v>
+        <v>0.055280859078989</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0364416460421121</v>
+        <v>0.0675079184080718</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0470470516301029</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0547697714263314</v>
+        <v>0.0521131495346841</v>
       </c>
       <c r="C17" t="n">
         <v>0.0614824116548898</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0455242731140238</v>
+        <v>0.0459186234803581</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0575470640794606</v>
+        <v>0.0602426905360707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.12687260764673</v>
+        <v>0.124147860471752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0256739041249565</v>
+        <v>0.0216121300106594</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0355686181279117</v>
+        <v>0.0309677677371798</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0688909013991233</v>
+        <v>0.0711054769546366</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0173974495781994</v>
+        <v>0.0177133530906729</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0446457534642989</v>
+        <v>0.0459311436113751</v>
       </c>
       <c r="L17" t="n">
-        <v>0.123662349921619</v>
+        <v>0.0386720768374842</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0449418080187214</v>
+        <v>0.119719906052843</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0442954973832486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0528676416330286</v>
+        <v>0.0511797510843495</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0644778811262157</v>
+        <v>0.0904479696599643</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0164164271342244</v>
+        <v>0.0879640814380553</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0849834807824498</v>
+        <v>0.102626510468748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0536924363894753</v>
+        <v>0.0416422645265048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0429514974040158</v>
+        <v>0.0784677602539242</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0787283694838731</v>
+        <v>0.0568555808266043</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0873246196469787</v>
+        <v>0.156404443001979</v>
       </c>
       <c r="J18" t="n">
-        <v>0.104883659434034</v>
+        <v>0.101137350991919</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0201779681061798</v>
+        <v>0.0199597097023148</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0817024271793519</v>
+        <v>0.0109540395661977</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0498593952924122</v>
+        <v>0.0123767471626783</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0358600230108203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0444995611418332</v>
+        <v>0.0459565256604568</v>
       </c>
       <c r="C19" t="n">
         <v>0.054584969620901</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0451726345714408</v>
+        <v>0.0444422420519703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0570224571408815</v>
+        <v>0.050426619384008</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0534905698505703</v>
+        <v>0.0514840724185711</v>
       </c>
       <c r="G19" t="n">
-        <v>0.040398341165946</v>
+        <v>0.0411899944045136</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0207991426991152</v>
+        <v>0.020324133848803</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0975812637274696</v>
+        <v>0.098620931508979</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0359678505921664</v>
+        <v>0.0374894270119377</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0560983047085911</v>
+        <v>0.0566412968402263</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0659350830173022</v>
+        <v>0.0564560205815362</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0260608974346387</v>
+        <v>0.0632163908945766</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0256297000483185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0395797755375443</v>
+        <v>0.0388578917300846</v>
       </c>
       <c r="C20" t="n">
         <v>0.030619497307116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0277140900900253</v>
+        <v>0.0272321611572084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00689573896317971</v>
+        <v>0.00493547896337238</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0153635096823333</v>
+        <v>0.0161311230070872</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0219348907620948</v>
+        <v>0.0213558194257113</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0567345059927479</v>
+        <v>0.0509826965313594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0642484362302339</v>
+        <v>0.0591008018581439</v>
       </c>
       <c r="J20" t="n">
-        <v>0.026307162024759</v>
+        <v>0.0299320951587988</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0101993655807276</v>
+        <v>0.0099523270547927</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0127454453775494</v>
+        <v>0.0337783086794981</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0643377134492392</v>
+        <v>0.0134367991292457</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0652505920083633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0294266668334385</v>
+        <v>0.0339485461630506</v>
       </c>
       <c r="C21" t="n">
         <v>0.0326837206155896</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03439900705862</v>
+        <v>0.0374073104791835</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0122433099098132</v>
+        <v>0.0172565602046779</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0368009780507259</v>
+        <v>0.0374457134416174</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0189370606843693</v>
+        <v>0.0171544233047508</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0552295903671527</v>
+        <v>0.0569026122194255</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0466720702990825</v>
+        <v>0.0434969284129136</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0241084577276599</v>
+        <v>0.0243903115111239</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00629557550554902</v>
+        <v>0.00596143015681944</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0751838169293507</v>
+        <v>0.0599012339243449</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0309366253296484</v>
+        <v>0.0808178395964132</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0325784653638094</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0245892837915224</v>
+        <v>0.0253320101411437</v>
       </c>
       <c r="C22" t="n">
         <v>0.0252449651918084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0168682449851334</v>
+        <v>0.0150821575151955</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0357710626272339</v>
+        <v>0.0339467630466632</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0311824647258278</v>
+        <v>0.0313170894719986</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0317302914064192</v>
+        <v>0.0306698030149461</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0130938935756028</v>
+        <v>0.0129454679452944</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0191104539327042</v>
+        <v>0.0214568298716061</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0223373937224421</v>
+        <v>0.0210764277070625</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0181246599785684</v>
+        <v>0.0180308157242487</v>
       </c>
       <c r="L22" t="n">
-        <v>0.116423621577242</v>
+        <v>0.0387578211137935</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0184285738127886</v>
+        <v>0.114334119416613</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0189274863432823</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0233179690693291</v>
+        <v>0.0230148099825781</v>
       </c>
       <c r="C23" t="n">
         <v>0.0162624003014547</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0103880770829407</v>
+        <v>0.00955979703048607</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0135828155806578</v>
+        <v>0.0132703173505918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00507650232751195</v>
+        <v>0.00532400493805395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0555074545561824</v>
+        <v>0.0638834320107434</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0177938146677441</v>
+        <v>0.0203962979580204</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00746247413747319</v>
+        <v>0.00821899865068003</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0351861582759067</v>
+        <v>0.0359565366868602</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00797229206962193</v>
+        <v>0.0089519398299778</v>
       </c>
       <c r="L23" t="n">
-        <v>0.021589577201869</v>
+        <v>0.0196783479657405</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0379803003831807</v>
+        <v>0.0218960696421969</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0391714951327146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0158183097043825</v>
+        <v>0.0138509211795456</v>
       </c>
       <c r="C24" t="n">
         <v>0.0216871703054929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.016132981651813</v>
+        <v>0.0158517135588387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0173254039348057</v>
+        <v>0.0158876392870874</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0375204681793655</v>
+        <v>0.0390808749495203</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00741544360896542</v>
+        <v>0.00679902164462841</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0272302736960879</v>
+        <v>0.0239255049759981</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0253144458876794</v>
+        <v>0.0223149225421439</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0041468370698654</v>
+        <v>0.00411942808575089</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0336200514897751</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0120584039992923</v>
+        <v>0.0236143807429693</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.011657584396833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0137986512168865</v>
+        <v>0.0122534313922989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0181076578845858</v>
+        <v>0.0120790960102914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0270843576372127</v>
+        <v>0.00667769086005155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243148275953029</v>
+        <v>0.00444450904638534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0153773435359556</v>
+        <v>0.0106547672234297</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0145843679198505</v>
+        <v>0.0164527409408381</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00437588930245375</v>
+        <v>0.0125048790327345</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0130941420149778</v>
+        <v>0.024868680524633</v>
       </c>
       <c r="J25" t="n">
-        <v>0.049196624233094</v>
+        <v>0.0152966404623647</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00649769863821177</v>
+        <v>0.00569387257061193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00561168191492564</v>
+        <v>0.0321618781942689</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0123771624732117</v>
+        <v>0.0193801768542093</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00618783510059652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0127128540321282</v>
+        <v>0.0120694172217533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00693964139149389</v>
+        <v>0.0181076578845858</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.0299917958352741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0109786088698988</v>
+        <v>0.0231539924489943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00507650232751195</v>
+        <v>0.0157531747164405</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0183537763061473</v>
+        <v>0.0155866022738291</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.00254196806277925</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00865029895716183</v>
+        <v>0.0124326892191775</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.0411799501554717</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.00661712036583907</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0257571725398839</v>
+        <v>0.00504877969515359</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.012099321799997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00922641166679347</v>
+        <v>0.0112016901927715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0120790960102914</v>
+        <v>0.00693964139149389</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00634351272110107</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00292373891095902</v>
+        <v>0.0122445996589174</v>
       </c>
       <c r="F27" t="n">
-        <v>0.011814029536276</v>
+        <v>0.00532400493805395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0146747058693335</v>
+        <v>0.0195190349092333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0110378655337517</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0281756739830509</v>
+        <v>0.0089234331633751</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0159089197978892</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00622461098904775</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0191360369872603</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00621137189423003</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0259577992522626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00905337271461553</v>
+        <v>0.00907570916409221</v>
       </c>
       <c r="C28" t="n">
         <v>0.006400132743844</v>
@@ -1584,31 +1668,34 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00683742502458315</v>
+        <v>0.00600367532001294</v>
       </c>
       <c r="F28" t="n">
-        <v>0.010312229040451</v>
+        <v>0.0100103173941081</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00710963894454499</v>
+        <v>0.005753627118104</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00549116006129043</v>
+        <v>0.00517564032680162</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00904467466349891</v>
+        <v>0.00921468568502897</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00217457348365939</v>
+        <v>0.00209840702164969</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00845420542093121</v>
+        <v>0.0102669217313047</v>
       </c>
       <c r="M28" t="n">
-        <v>0.015009868474439</v>
+        <v>0.00734933498450449</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0151096086403944</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_issue_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_gpt_positive.xlsx
@@ -59,12 +59,12 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Other topic; unclear; vague</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
@@ -74,25 +74,28 @@
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">International issues</t>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+    <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
@@ -101,19 +104,16 @@
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
     <t xml:space="preserve">War; peace</t>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.223417545568208</v>
+        <v>0.217123654007535</v>
       </c>
       <c r="C2" t="n">
         <v>0.169237286456615</v>
@@ -545,7 +545,7 @@
         <v>0.417794103579128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.274891084219612</v>
+        <v>0.212067171969351</v>
       </c>
       <c r="M2" t="n">
         <v>0.234856526153382</v>
@@ -559,43 +559,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.202269104730039</v>
+        <v>0.200289973392859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2010605290208</v>
+        <v>0.179401626647236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235004972112414</v>
+        <v>0.187408340230694</v>
       </c>
       <c r="E3" t="n">
-        <v>0.148313700032348</v>
+        <v>0.171648492730654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.210534318184935</v>
+        <v>0.175639817597509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24296691667722</v>
+        <v>0.17167362928555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.216502179930676</v>
+        <v>0.182540623706696</v>
       </c>
       <c r="I3" t="n">
-        <v>0.210333597878881</v>
+        <v>0.194653428882325</v>
       </c>
       <c r="J3" t="n">
-        <v>0.130626228945134</v>
+        <v>0.198858680374727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.230114305724602</v>
+        <v>0.14582823713337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.159198392534512</v>
+        <v>0.229177726438464</v>
       </c>
       <c r="M3" t="n">
-        <v>0.128315851505375</v>
+        <v>0.26434625950318</v>
       </c>
       <c r="N3" t="n">
-        <v>0.223618468520948</v>
+        <v>0.2291218088436</v>
       </c>
     </row>
     <row r="4">
@@ -603,43 +603,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198974784839264</v>
+        <v>0.193621681198297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.179401626647236</v>
+        <v>0.2010605290208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.187408340230694</v>
+        <v>0.235004972112414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.171648492730654</v>
+        <v>0.148313700032348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.175639817597509</v>
+        <v>0.210534318184935</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17167362928555</v>
+        <v>0.24296691667722</v>
       </c>
       <c r="H4" t="n">
-        <v>0.182540623706696</v>
+        <v>0.216502179930676</v>
       </c>
       <c r="I4" t="n">
-        <v>0.194653428882325</v>
+        <v>0.210333597878881</v>
       </c>
       <c r="J4" t="n">
-        <v>0.198858680374727</v>
+        <v>0.130626228945134</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14582823713337</v>
+        <v>0.230114305724602</v>
       </c>
       <c r="L4" t="n">
-        <v>0.225302962859589</v>
+        <v>0.0665093812263328</v>
       </c>
       <c r="M4" t="n">
-        <v>0.26434625950318</v>
+        <v>0.128315851505375</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2291218088436</v>
+        <v>0.223618468520948</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182774776343836</v>
+        <v>0.165796312119008</v>
       </c>
       <c r="C5" t="n">
         <v>0.194177085741855</v>
@@ -677,7 +677,7 @@
         <v>0.261267745175297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.192983990029881</v>
+        <v>0.0767681491274628</v>
       </c>
       <c r="M5" t="n">
         <v>0.0159500889818958</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.155366163302992</v>
+        <v>0.158083541628012</v>
       </c>
       <c r="C6" t="n">
         <v>0.125240446694307</v>
@@ -721,7 +721,7 @@
         <v>0.158661882963015</v>
       </c>
       <c r="L6" t="n">
-        <v>0.239984981422845</v>
+        <v>0.259639950034696</v>
       </c>
       <c r="M6" t="n">
         <v>0.106978131318924</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114739269035843</v>
+        <v>0.116445287688261</v>
       </c>
       <c r="C7" t="n">
         <v>0.128124521827342</v>
@@ -765,7 +765,7 @@
         <v>0.0514750920516115</v>
       </c>
       <c r="L7" t="n">
-        <v>0.103834773022203</v>
+        <v>0.111953020862244</v>
       </c>
       <c r="M7" t="n">
         <v>0.0825074330161454</v>
@@ -779,43 +779,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.111319750188776</v>
+        <v>0.104042747465625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103554521321094</v>
+        <v>0.0911640642838539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112033132041557</v>
+        <v>0.0532556001536656</v>
       </c>
       <c r="E8" t="n">
-        <v>0.099754758011605</v>
+        <v>0.112505049354584</v>
       </c>
       <c r="F8" t="n">
-        <v>0.157823212209008</v>
+        <v>0.0832527881429948</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0540570065353844</v>
+        <v>0.0320587873227007</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0641463943318464</v>
+        <v>0.0782756597965694</v>
       </c>
       <c r="I8" t="n">
-        <v>0.103453211313723</v>
+        <v>0.14168921643083</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0787647814558626</v>
+        <v>0.11543012043317</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0664932910911076</v>
+        <v>0.0390126789362828</v>
       </c>
       <c r="L8" t="n">
-        <v>0.183013004546075</v>
+        <v>0.056164103797909</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0950541421571336</v>
+        <v>0.229113074178228</v>
       </c>
       <c r="N8" t="n">
-        <v>0.10973129698722</v>
+        <v>0.149054943043887</v>
       </c>
     </row>
     <row r="9">
@@ -823,43 +823,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.100636478368573</v>
+        <v>0.103810609838867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0911640642838539</v>
+        <v>0.103554521321094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0532556001536656</v>
+        <v>0.112033132041557</v>
       </c>
       <c r="E9" t="n">
-        <v>0.112505049354584</v>
+        <v>0.099754758011605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0832527881429948</v>
+        <v>0.157823212209008</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0320587873227007</v>
+        <v>0.0540570065353844</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0782756597965694</v>
+        <v>0.0641463943318464</v>
       </c>
       <c r="I9" t="n">
-        <v>0.14168921643083</v>
+        <v>0.103453211313723</v>
       </c>
       <c r="J9" t="n">
-        <v>0.11543012043317</v>
+        <v>0.0787647814558626</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0390126789362828</v>
+        <v>0.0664932910911076</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0435582808776408</v>
+        <v>0.129714664568874</v>
       </c>
       <c r="M9" t="n">
-        <v>0.229113074178228</v>
+        <v>0.0950541421571336</v>
       </c>
       <c r="N9" t="n">
-        <v>0.149054943043887</v>
+        <v>0.10973129698722</v>
       </c>
     </row>
     <row r="10">
@@ -867,43 +867,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0825696079393081</v>
+        <v>0.0801295441352795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0802683839971821</v>
+        <v>0.0922245157617876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0512028795696537</v>
+        <v>0.114029923494134</v>
       </c>
       <c r="E10" t="n">
-        <v>0.161261647410383</v>
+        <v>0.0628469370700283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0138833568113996</v>
+        <v>0.123315835459908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0359425466939943</v>
+        <v>0.0921364715497939</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0823011764504771</v>
+        <v>0.079134051606482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0823275994286373</v>
+        <v>0.0943553572299966</v>
       </c>
       <c r="J10" t="n">
-        <v>0.045731141535936</v>
+        <v>0.0467649336664393</v>
       </c>
       <c r="K10" t="n">
-        <v>0.122618642318391</v>
+        <v>0.0410716403347922</v>
       </c>
       <c r="L10" t="n">
-        <v>0.139516078458568</v>
+        <v>0.0441167617953602</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0256610929657658</v>
+        <v>0.0638108550560298</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0434665845814901</v>
+        <v>0.0949483854645325</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0787402377395512</v>
+        <v>0.0737309537647457</v>
       </c>
       <c r="C11" t="n">
         <v>0.0845768166585125</v>
@@ -941,7 +941,7 @@
         <v>0.0420149620192871</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0529345583001773</v>
+        <v>0.0141941420127305</v>
       </c>
       <c r="M11" t="n">
         <v>0.0922009218920834</v>
@@ -955,43 +955,43 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0785845204367447</v>
+        <v>0.0707831425445323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0922245157617876</v>
+        <v>0.0802683839971821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114029923494134</v>
+        <v>0.0512028795696537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0628469370700283</v>
+        <v>0.161261647410383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123315835459908</v>
+        <v>0.0138833568113996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0921364715497939</v>
+        <v>0.0359425466939943</v>
       </c>
       <c r="H12" t="n">
-        <v>0.079134051606482</v>
+        <v>0.0823011764504771</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0943553572299966</v>
+        <v>0.0823275994286373</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0467649336664393</v>
+        <v>0.045731141535936</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0410716403347922</v>
+        <v>0.122618642318391</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0303952047915561</v>
+        <v>0.0562893675308371</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0638108550560298</v>
+        <v>0.0256610929657658</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0949483854645325</v>
+        <v>0.0434665845814901</v>
       </c>
     </row>
     <row r="13">
@@ -999,43 +999,43 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0681082474454797</v>
+        <v>0.064914330817353</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0753497714087026</v>
+        <v>0.0513130452211509</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0490599793765233</v>
+        <v>0.0468206925047297</v>
       </c>
       <c r="E13" t="n">
-        <v>0.104451332752594</v>
+        <v>0.0486758067548061</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0888713701402803</v>
+        <v>0.0805721747900076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0186779745621404</v>
+        <v>0.0334376420926766</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0585071288275469</v>
+        <v>0.0598633412073072</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0880766171564503</v>
+        <v>0.0340549142640836</v>
       </c>
       <c r="J13" t="n">
-        <v>0.107734637245884</v>
+        <v>0.0310925313658057</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0192860651638059</v>
+        <v>0.0278085753322101</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0493898969534796</v>
+        <v>0.0365158093056209</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0995309836308743</v>
+        <v>0.0449670165527774</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0841120508366378</v>
+        <v>0.108159023402514</v>
       </c>
     </row>
     <row r="14">
@@ -1043,43 +1043,43 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0670505807983924</v>
+        <v>0.0638098300025029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0513130452211509</v>
+        <v>0.0753497714087026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0468206925047297</v>
+        <v>0.0490599793765233</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0486758067548061</v>
+        <v>0.104451332752594</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0805721747900076</v>
+        <v>0.0888713701402803</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0334376420926766</v>
+        <v>0.0186779745621404</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0598633412073072</v>
+        <v>0.0585071288275469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0340549142640836</v>
+        <v>0.0880766171564503</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0310925313658057</v>
+        <v>0.107734637245884</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0278085753322101</v>
+        <v>0.0192860651638059</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0550524068414956</v>
+        <v>0.0114264914481397</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0449670165527774</v>
+        <v>0.0995309836308743</v>
       </c>
       <c r="N14" t="n">
-        <v>0.108159023402514</v>
+        <v>0.0841120508366378</v>
       </c>
     </row>
     <row r="15">
@@ -1087,43 +1087,43 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0554673332762736</v>
+        <v>0.058539883016404</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0489173522914819</v>
+        <v>0.0614824116548898</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0543110714866601</v>
+        <v>0.0459186234803581</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00948979408175142</v>
+        <v>0.0602426905360707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0568521807956981</v>
+        <v>0.124147860471752</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0961892138359744</v>
+        <v>0.0216121300106594</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0784274895807323</v>
+        <v>0.0309677677371798</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0372039071236525</v>
+        <v>0.0711054769546366</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0233500870122781</v>
+        <v>0.0177133530906729</v>
       </c>
       <c r="K15" t="n">
-        <v>0.062075756668966</v>
+        <v>0.0459311436113751</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0359099358589463</v>
+        <v>0.0958956762863386</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00516819540271738</v>
+        <v>0.119719906052843</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0781284695012686</v>
+        <v>0.0442954973832486</v>
       </c>
     </row>
     <row r="16">
@@ -1131,43 +1131,43 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0531354482553969</v>
+        <v>0.0574840422493058</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0644778811262157</v>
+        <v>0.0489173522914819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0197726738446422</v>
+        <v>0.0543110714866601</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0836245081867106</v>
+        <v>0.00948979408175142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0551578131881291</v>
+        <v>0.0568521807956981</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0404017534809193</v>
+        <v>0.0961892138359744</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0814427564858072</v>
+        <v>0.0784274895807323</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0802510462445432</v>
+        <v>0.0372039071236525</v>
       </c>
       <c r="J16" t="n">
-        <v>0.111364688677826</v>
+        <v>0.0233500870122781</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0204914435460756</v>
+        <v>0.062075756668966</v>
       </c>
       <c r="L16" t="n">
-        <v>0.055280859078989</v>
+        <v>0.051409139208354</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0675079184080718</v>
+        <v>0.00516819540271738</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0470470516301029</v>
+        <v>0.0781284695012686</v>
       </c>
     </row>
     <row r="17">
@@ -1175,43 +1175,43 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0521131495346841</v>
+        <v>0.051572759008726</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0614824116548898</v>
+        <v>0.0644778811262157</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0459186234803581</v>
+        <v>0.0197726738446422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0602426905360707</v>
+        <v>0.0836245081867106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124147860471752</v>
+        <v>0.0551578131881291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0216121300106594</v>
+        <v>0.0404017534809193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0309677677371798</v>
+        <v>0.0814427564858072</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0711054769546366</v>
+        <v>0.0802510462445432</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0177133530906729</v>
+        <v>0.111364688677826</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0459311436113751</v>
+        <v>0.0204914435460756</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0386720768374842</v>
+        <v>0.0490208491550144</v>
       </c>
       <c r="M17" t="n">
-        <v>0.119719906052843</v>
+        <v>0.0675079184080718</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0442954973832486</v>
+        <v>0.0470470516301029</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511797510843495</v>
+        <v>0.0501428206105147</v>
       </c>
       <c r="C18" t="n">
         <v>0.0904479696599643</v>
@@ -1249,7 +1249,7 @@
         <v>0.0199597097023148</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0109540395661977</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0123767471626783</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0459565256604568</v>
+        <v>0.0478303666374675</v>
       </c>
       <c r="C19" t="n">
         <v>0.054584969620901</v>
@@ -1293,7 +1293,7 @@
         <v>0.0566412968402263</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0564560205815362</v>
+        <v>0.0766034501532297</v>
       </c>
       <c r="M19" t="n">
         <v>0.0632163908945766</v>
@@ -1307,43 +1307,43 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0388578917300846</v>
+        <v>0.0455737806271264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.030619497307116</v>
+        <v>0.0326837206155896</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0272321611572084</v>
+        <v>0.0374073104791835</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00493547896337238</v>
+        <v>0.0172565602046779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0161311230070872</v>
+        <v>0.0374457134416174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0213558194257113</v>
+        <v>0.0171544233047508</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0509826965313594</v>
+        <v>0.0569026122194255</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0591008018581439</v>
+        <v>0.0434969284129136</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0299320951587988</v>
+        <v>0.0243903115111239</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0099523270547927</v>
+        <v>0.00596143015681944</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0337783086794981</v>
+        <v>0.166810410268063</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0134367991292457</v>
+        <v>0.0808178395964132</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0652505920083633</v>
+        <v>0.0325784653638094</v>
       </c>
     </row>
     <row r="21">
@@ -1351,43 +1351,43 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0339485461630506</v>
+        <v>0.0452427213070559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0326837206155896</v>
+        <v>0.030619497307116</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0374073104791835</v>
+        <v>0.0272321611572084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0172565602046779</v>
+        <v>0.00493547896337238</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0374457134416174</v>
+        <v>0.0161311230070872</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0171544233047508</v>
+        <v>0.0213558194257113</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0569026122194255</v>
+        <v>0.0509826965313594</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0434969284129136</v>
+        <v>0.0591008018581439</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0243903115111239</v>
+        <v>0.0299320951587988</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00596143015681944</v>
+        <v>0.0099523270547927</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0599012339243449</v>
+        <v>0.0843557499194739</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0808178395964132</v>
+        <v>0.0134367991292457</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0325784653638094</v>
+        <v>0.0652505920083633</v>
       </c>
     </row>
     <row r="22">
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0253320101411437</v>
+        <v>0.026117793034102</v>
       </c>
       <c r="C22" t="n">
         <v>0.0252449651918084</v>
@@ -1425,7 +1425,7 @@
         <v>0.0180308157242487</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0387578211137935</v>
+        <v>0.0311085212926533</v>
       </c>
       <c r="M22" t="n">
         <v>0.114334119416613</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0230148099825781</v>
+        <v>0.024566523345673</v>
       </c>
       <c r="C23" t="n">
         <v>0.0162624003014547</v>
@@ -1469,7 +1469,7 @@
         <v>0.0089519398299778</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0196783479657405</v>
+        <v>0.040429964782185</v>
       </c>
       <c r="M23" t="n">
         <v>0.0218960696421969</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0138509211795456</v>
+        <v>0.0146278006158604</v>
       </c>
       <c r="C24" t="n">
         <v>0.0216871703054929</v>
@@ -1513,7 +1513,7 @@
         <v>0.00411942808575089</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0076477534473621</v>
       </c>
       <c r="M24" t="n">
         <v>0.0236143807429693</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0122534313922989</v>
+        <v>0.0127662042003556</v>
       </c>
       <c r="C25" t="n">
         <v>0.0120790960102914</v>
@@ -1557,7 +1557,7 @@
         <v>0.00569387257061193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0321618781942689</v>
+        <v>0.0380772083068631</v>
       </c>
       <c r="M25" t="n">
         <v>0.0193801768542093</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0120694172217533</v>
+        <v>0.0120697945880371</v>
       </c>
       <c r="C26" t="n">
         <v>0.0181076578845858</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0112016901927715</v>
+        <v>0.0112020404284227</v>
       </c>
       <c r="C27" t="n">
         <v>0.00693964139149389</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00907570916409221</v>
+        <v>0.00792696182137278</v>
       </c>
       <c r="C28" t="n">
         <v>0.006400132743844</v>
@@ -1689,7 +1689,7 @@
         <v>0.00209840702164969</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0102669217313047</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0.00734933498450449</v>
